--- a/comparison table.xlsx
+++ b/comparison table.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/annual-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694410B-7EB3-C94B-834A-5066ADE1997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F394A-9244-8941-B132-7035EF07BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41640" yWindow="2140" windowWidth="43020" windowHeight="23520" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29580" windowHeight="18880" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$Q$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$Q$145</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="242">
   <si>
     <t>Aye-Aye</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Galago</t>
   </si>
   <si>
-    <t>Olivier et al</t>
-  </si>
-  <si>
-    <t>Lukas &amp; Clutton-Brock</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>Spectral/Selayar Tarsier</t>
   </si>
   <si>
-    <t>Kappeler &amp; Pozzi</t>
-  </si>
-  <si>
     <t>Common Name</t>
   </si>
   <si>
@@ -641,9 +632,6 @@
     <t>Lepilemur mitsinjoensis</t>
   </si>
   <si>
-    <t>Shultz et al</t>
-  </si>
-  <si>
     <t>Superfamily</t>
   </si>
   <si>
@@ -671,9 +659,6 @@
     <t>Primates</t>
   </si>
   <si>
-    <t>3 state</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -686,18 +671,12 @@
     <t>S, P, G</t>
   </si>
   <si>
-    <t>4 state</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Müller &amp; Thalman</t>
-  </si>
-  <si>
     <t>Dermoptera</t>
   </si>
   <si>
@@ -708,9 +687,6 @@
   </si>
   <si>
     <t>Western African Potto</t>
-  </si>
-  <si>
-    <t>S = solitary, P = pair, UM = unimale-multifemale, MM = multimale-multfemale, G = group (UM or MM), D = dispersed</t>
   </si>
   <si>
     <t>D-P</t>
@@ -940,6 +916,33 @@
   </si>
   <si>
     <t>Additional</t>
+  </si>
+  <si>
+    <t>Kappeler &amp; Pozzi 3 state</t>
+  </si>
+  <si>
+    <t>Kappeler &amp; Pozzi 4 state</t>
+  </si>
+  <si>
+    <t>Lukas &amp; Clutton-Brock 3 state</t>
+  </si>
+  <si>
+    <t>Olivier et al 3 state</t>
+  </si>
+  <si>
+    <t>Shultz et al 3 state</t>
+  </si>
+  <si>
+    <t>Shultz et al 4 state</t>
+  </si>
+  <si>
+    <t>Müller &amp; Thalman 3 state</t>
+  </si>
+  <si>
+    <t>Discrepancy</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G107" sqref="G95:G107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,332 +1343,355 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.83203125" customWidth="1"/>
     <col min="17" max="17" width="6.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>240</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="S1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>210</v>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>23</v>
@@ -1673,167 +1699,155 @@
       <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1841,375 +1855,387 @@
       <c r="E15" t="s">
         <v>53</v>
       </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>55</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
       </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
-        <v>198</v>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>86</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -2218,1567 +2244,1576 @@
         <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>93</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>94</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>51</v>
+        <v>196</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
         <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
         <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
         <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
         <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s">
         <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
       </c>
       <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>51</v>
+      <c r="J76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
         <v>34</v>
@@ -3786,1497 +3821,1439 @@
       <c r="E77" t="s">
         <v>70</v>
       </c>
-      <c r="F77" t="s">
-        <v>3</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
         <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
         <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
         <v>34</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
         <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
         <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
         <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
         <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B89" t="s">
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D91" t="s">
         <v>37</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
         <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D92" t="s">
         <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="F93" t="s">
+        <v>215</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>167</v>
+      </c>
+      <c r="F95" t="s">
+        <v>40</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
         <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
-      </c>
-      <c r="F96" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
         <v>39</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="F98" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
         <v>151</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>153</v>
-      </c>
-      <c r="E99" t="s">
-        <v>152</v>
       </c>
       <c r="F99" t="s">
         <v>160</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J99" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" t="s">
         <v>151</v>
       </c>
-      <c r="D100" t="s">
-        <v>153</v>
-      </c>
       <c r="E100" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>211</v>
+      <c r="I100" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
         <v>151</v>
       </c>
-      <c r="D101" t="s">
-        <v>153</v>
-      </c>
       <c r="E101" t="s">
-        <v>154</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" t="s">
         <v>161</v>
       </c>
-      <c r="C102" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" t="s">
-        <v>180</v>
-      </c>
       <c r="I102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" t="s">
         <v>151</v>
       </c>
-      <c r="D103" t="s">
-        <v>153</v>
-      </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
         <v>163</v>
       </c>
+      <c r="G103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I103" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" t="s">
         <v>151</v>
       </c>
-      <c r="D104" t="s">
-        <v>153</v>
-      </c>
       <c r="E104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q104" s="1" t="s">
-        <v>211</v>
+      <c r="N104" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" t="s">
         <v>151</v>
       </c>
-      <c r="D105" t="s">
-        <v>153</v>
-      </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" t="s">
         <v>151</v>
       </c>
-      <c r="D106" t="s">
-        <v>153</v>
-      </c>
       <c r="E106" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="R106" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
-      </c>
-      <c r="D107" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
+      </c>
+      <c r="F107" t="s">
+        <v>230</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="F108" t="s">
-        <v>238</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="S108" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E109" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>236</v>
+        <v>229</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S109" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
-      </c>
-      <c r="F110" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S110" t="s">
-        <v>232</v>
+        <v>49</v>
+      </c>
+      <c r="P110" s="1"/>
+      <c r="R110" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P111" s="1"/>
       <c r="R111" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P112" s="1"/>
       <c r="R112" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
+        <v>202</v>
+      </c>
+      <c r="E113" t="s">
+        <v>182</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E113" t="s">
-        <v>184</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P113" s="1"/>
       <c r="R113" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="S113" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="S114" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P115" s="1"/>
       <c r="R115" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S115" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P116" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="R116" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="S116" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="S117" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P118" s="1"/>
       <c r="R118" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S118" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P119" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="R119" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="S119" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P120" s="1"/>
       <c r="R120" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S120" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P121" s="1"/>
       <c r="R121" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P122" s="1"/>
       <c r="R122" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P124" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="R124" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="S124" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E125" t="s">
-        <v>196</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S125" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>233</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
+      </c>
+      <c r="F126" t="s">
+        <v>231</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="C127" t="s">
-        <v>220</v>
-      </c>
-      <c r="E127" t="s">
-        <v>221</v>
-      </c>
-      <c r="F127" t="s">
-        <v>239</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:Q146" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
+  <autoFilter ref="G1:Q145" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B38:N62">
-    <sortCondition ref="E38:E62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B37:N61">
+    <sortCondition ref="E37:E61"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="M1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/comparison table.xlsx
+++ b/comparison table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad26693/Development/Repos/annual-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57956C85-1602-A140-B7F9-BEEFBF18FF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117D41E-A950-0141-81D5-374CC72DA98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="24700" windowHeight="17920" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
+    <workbookView xWindow="6180" yWindow="2880" windowWidth="38420" windowHeight="22640" activeTab="1" xr2:uid="{1350A0DA-5E7B-1C41-A735-B10335508F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="226">
   <si>
     <t>solitary</t>
   </si>
@@ -459,24 +460,9 @@
     <t>Müller &amp; Thalman 3 state</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Conflicting Character State Assignment?</t>
-  </si>
-  <si>
     <t>activity pattern scored as diurnal in some studies</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>AKA Galago zanzibaricus</t>
-  </si>
-  <si>
-    <t>AKA Galagoides demidoff</t>
-  </si>
-  <si>
     <t>Galeopterus</t>
   </si>
   <si>
@@ -873,19 +859,43 @@
     <t>concordant</t>
   </si>
   <si>
-    <t>Müller &amp; Thalman 3 state - dispersed</t>
-  </si>
-  <si>
     <t>Additional 3 state</t>
   </si>
   <si>
-    <t>Additional 3 state - dispersed</t>
-  </si>
-  <si>
-    <t>Müeller and Thalman D-G is D-G?</t>
-  </si>
-  <si>
-    <t>Müeller and Thalman D-P is D-P?</t>
+    <t>Müller &amp; Thalman 5 state</t>
+  </si>
+  <si>
+    <t>Additional 5 state</t>
+  </si>
+  <si>
+    <t>Character State Assignment Comparison</t>
+  </si>
+  <si>
+    <t>based on Dammhahn &amp; Kappeler (2005), this species is perhaps better scored as G</t>
+  </si>
+  <si>
+    <t>Müeller and Thalman (2000)'s social organization classification is considered tenative</t>
+  </si>
+  <si>
+    <t>Notes and Reference</t>
+  </si>
+  <si>
+    <t>Cephalopachus_bancanus</t>
+  </si>
+  <si>
+    <t>Carlito_syrichta</t>
+  </si>
+  <si>
+    <t>referred to as Galago demidoff in some studies; species name changed to match phylogenetic tree</t>
+  </si>
+  <si>
+    <t>referred to as Galago zanzibaricus in some studies; species name changed to match phylogenetic tree</t>
+  </si>
+  <si>
+    <t>referred to as Tarsius bancanus in some studies; species name changed to match phylogenetic tree</t>
+  </si>
+  <si>
+    <t>referred to as Tarsius syrichta in some studies; species name changed to match phylogenetic tree</t>
   </si>
 </sst>
 </file>
@@ -929,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,9 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,11 +1306,11 @@
     <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
     <col min="14" max="15" width="9.1640625" style="1" customWidth="1"/>
     <col min="16" max="17" width="9.83203125" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1344,36 +1351,33 @@
         <v>78</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1409,18 +1413,18 @@
         <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1441,18 +1445,18 @@
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1488,21 +1492,21 @@
         <v>28</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1538,27 +1542,27 @@
         <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1573,18 +1577,18 @@
         <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1599,18 +1603,18 @@
         <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1631,18 +1635,18 @@
         <v>30</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1660,18 +1664,18 @@
         <v>28</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1692,18 +1696,21 @@
         <v>28</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
         <v>217</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1721,18 +1728,18 @@
         <v>28</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1750,18 +1757,18 @@
         <v>28</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1779,18 +1786,18 @@
         <v>28</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1811,18 +1818,18 @@
         <v>28</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1840,18 +1847,18 @@
         <v>28</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1869,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>61</v>
@@ -1880,7 +1887,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1898,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>61</v>
@@ -1909,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1927,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>61</v>
@@ -1938,7 +1945,7 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1956,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>61</v>
@@ -1967,7 +1974,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1985,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>61</v>
@@ -1996,7 +2003,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2032,13 +2039,13 @@
         <v>29</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>61</v>
@@ -2049,7 +2056,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2076,7 +2083,7 @@
         <v>28</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>61</v>
@@ -2087,7 +2094,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2123,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>61</v>
@@ -2134,7 +2141,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2161,7 +2168,7 @@
         <v>28</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>61</v>
@@ -2172,7 +2179,7 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2190,7 +2197,7 @@
         <v>28</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>61</v>
@@ -2201,7 +2208,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2219,7 +2226,7 @@
         <v>28</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>61</v>
@@ -2230,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2248,7 +2255,7 @@
         <v>28</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>61</v>
@@ -2259,7 +2266,7 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2295,13 +2302,13 @@
         <v>28</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>61</v>
@@ -2312,7 +2319,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2330,7 +2337,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>61</v>
@@ -2341,7 +2348,7 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2365,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R30" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>61</v>
@@ -2382,7 +2389,7 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2403,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>61</v>
@@ -2414,7 +2421,7 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2429,18 +2436,18 @@
         <v>28</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2476,24 +2483,24 @@
         <v>28</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2520,18 +2527,18 @@
         <v>35</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2546,18 +2553,18 @@
         <v>28</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2584,24 +2591,24 @@
         <v>35</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R36" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2616,18 +2623,18 @@
         <v>28</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2654,27 +2661,27 @@
         <v>36</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2695,18 +2702,18 @@
         <v>28</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2733,18 +2740,18 @@
         <v>28</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2765,18 +2772,18 @@
         <v>28</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2797,18 +2804,18 @@
         <v>28</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2835,24 +2842,24 @@
         <v>35</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R43" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2867,18 +2874,18 @@
         <v>28</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2899,18 +2906,18 @@
         <v>28</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2925,18 +2932,18 @@
         <v>28</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2963,18 +2970,18 @@
         <v>35</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2995,18 +3002,18 @@
         <v>28</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -3042,27 +3049,27 @@
         <v>36</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -3098,24 +3105,24 @@
         <v>36</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R50" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -3151,18 +3158,18 @@
         <v>28</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -3183,18 +3190,18 @@
         <v>28</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3212,18 +3219,18 @@
         <v>30</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3241,18 +3248,18 @@
         <v>30</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3288,18 +3295,18 @@
         <v>30</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3326,18 +3333,18 @@
         <v>9</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3373,18 +3380,18 @@
         <v>30</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3402,18 +3409,18 @@
         <v>30</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3431,18 +3438,18 @@
         <v>30</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3463,18 +3470,18 @@
         <v>30</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3489,18 +3496,18 @@
         <v>30</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3524,18 +3531,18 @@
         <v>28</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3553,18 +3560,18 @@
         <v>28</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3591,18 +3598,18 @@
         <v>28</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3620,18 +3627,18 @@
         <v>28</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3658,18 +3665,18 @@
         <v>28</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3705,24 +3712,24 @@
         <v>28</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R67" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3740,18 +3747,18 @@
         <v>28</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3769,18 +3776,18 @@
         <v>28</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3798,18 +3805,18 @@
         <v>28</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3827,18 +3834,18 @@
         <v>28</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3874,27 +3881,27 @@
         <v>28</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R72" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3921,18 +3928,18 @@
         <v>28</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3950,18 +3957,18 @@
         <v>28</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3979,18 +3986,18 @@
         <v>28</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4008,18 +4015,18 @@
         <v>28</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4055,18 +4062,18 @@
         <v>28</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4084,18 +4091,18 @@
         <v>28</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4113,18 +4120,18 @@
         <v>28</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4148,18 +4155,18 @@
         <v>28</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4195,27 +4202,27 @@
         <v>28</v>
       </c>
       <c r="N81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R81" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4239,18 +4246,18 @@
         <v>28</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4274,18 +4281,18 @@
         <v>28</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4312,18 +4319,18 @@
         <v>28</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4341,18 +4348,18 @@
         <v>28</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4370,18 +4377,18 @@
         <v>28</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -4402,18 +4409,18 @@
         <v>28</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -4440,18 +4447,18 @@
         <v>28</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -4487,18 +4494,18 @@
         <v>29</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -4525,24 +4532,24 @@
         <v>29</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O90" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R90" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -4563,18 +4570,18 @@
         <v>28</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -4610,18 +4617,18 @@
         <v>28</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -4639,18 +4646,18 @@
         <v>28</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -4668,18 +4675,18 @@
         <v>28</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -4706,18 +4713,18 @@
         <v>28</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -4753,7 +4760,7 @@
         <v>28</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>61</v>
@@ -4764,7 +4771,7 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -4779,7 +4786,7 @@
         <v>28</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>61</v>
@@ -4790,7 +4797,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
         <v>46</v>
@@ -4826,10 +4833,13 @@
         <v>28</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="T98" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -4837,7 +4847,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
         <v>46</v>
@@ -4858,7 +4868,7 @@
         <v>28</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>61</v>
@@ -4869,7 +4879,7 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s">
         <v>46</v>
@@ -4896,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>61</v>
@@ -4907,7 +4917,7 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
         <v>46</v>
@@ -4922,7 +4932,7 @@
         <v>28</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>61</v>
@@ -4933,7 +4943,7 @@
         <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
         <v>46</v>
@@ -4957,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>61</v>
@@ -4968,7 +4978,7 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
         <v>46</v>
@@ -4998,7 +5008,7 @@
         <v>8</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>61</v>
@@ -5009,7 +5019,7 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -5045,10 +5055,13 @@
         <v>28</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="T104" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -5056,7 +5069,7 @@
         <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -5086,7 +5099,7 @@
         <v>10</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S105" s="1" t="s">
         <v>61</v>
@@ -5097,7 +5110,7 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
         <v>46</v>
@@ -5115,7 +5128,7 @@
         <v>40</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>61</v>
@@ -5126,16 +5139,16 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D107" t="s">
         <v>63</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>61</v>
@@ -5146,13 +5159,13 @@
         <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
       </c>
       <c r="E108" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>28</v>
@@ -5164,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T108" t="s">
         <v>70</v>
@@ -5175,13 +5188,13 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
         <v>49</v>
       </c>
       <c r="E109" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>31</v>
@@ -5190,7 +5203,7 @@
         <v>31</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T109" t="s">
         <v>72</v>
@@ -5201,13 +5214,13 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D110" t="s">
         <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>28</v>
@@ -5219,7 +5232,7 @@
         <v>31</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -5230,7 +5243,7 @@
         <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E111" t="s">
         <v>71</v>
@@ -5242,10 +5255,13 @@
         <v>30</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="T111" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -5253,13 +5269,13 @@
         <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>28</v>
@@ -5267,7 +5283,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>60</v>
@@ -5278,13 +5294,13 @@
         <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D113" t="s">
         <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>28</v>
@@ -5292,7 +5308,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>60</v>
@@ -5303,13 +5319,13 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D114" t="s">
         <v>53</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>28</v>
@@ -5317,7 +5333,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>60</v>
@@ -5328,27 +5344,27 @@
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D115" t="s">
         <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>60</v>
@@ -5362,13 +5378,13 @@
         <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D116" t="s">
         <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>28</v>
@@ -5380,7 +5396,7 @@
         <v>30</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>60</v>
@@ -5394,13 +5410,13 @@
         <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D117" t="s">
         <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>28</v>
@@ -5408,7 +5424,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>60</v>
@@ -5419,13 +5435,13 @@
         <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D118" t="s">
         <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>28</v>
@@ -5437,7 +5453,7 @@
         <v>30</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>60</v>
@@ -5451,13 +5467,13 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D119" t="s">
         <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>28</v>
@@ -5469,7 +5485,7 @@
         <v>30</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>60</v>
@@ -5483,13 +5499,13 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D120" t="s">
         <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>28</v>
@@ -5497,7 +5513,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>60</v>
@@ -5508,13 +5524,13 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D121" t="s">
         <v>53</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>31</v>
@@ -5526,7 +5542,7 @@
         <v>30</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>60</v>
@@ -5540,13 +5556,13 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D122" t="s">
         <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>28</v>
@@ -5554,7 +5570,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>60</v>
@@ -5565,13 +5581,13 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
         <v>53</v>
       </c>
       <c r="E123" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>28</v>
@@ -5579,7 +5595,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>60</v>
@@ -5590,13 +5606,13 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D124" t="s">
         <v>53</v>
       </c>
       <c r="E124" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>28</v>
@@ -5604,7 +5620,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>60</v>
@@ -5615,13 +5631,13 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D125" t="s">
         <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>28</v>
@@ -5629,7 +5645,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>60</v>
@@ -5640,13 +5656,13 @@
         <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D126" t="s">
         <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>28</v>
@@ -5658,7 +5674,7 @@
         <v>30</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>60</v>
@@ -5668,12 +5684,3466 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T126" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T145">
+  <autoFilter ref="A1:R126" xr:uid="{535C72BD-53FF-3044-BBFB-170DFC0FF44B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R145">
     <sortCondition ref="A2:A145"/>
     <sortCondition ref="D2:D145"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FAB081-A098-5C46-8A6F-B22D85465441}">
+  <dimension ref="A1:O126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="O108" sqref="O108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" t="s">
+        <v>81</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" t="s">
+        <v>71</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" t="s">
+        <v>84</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" t="s">
+        <v>84</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" t="s">
+        <v>198</v>
+      </c>
+      <c r="D116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" t="s">
+        <v>84</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" t="s">
+        <v>84</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" t="s">
+        <v>84</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" t="s">
+        <v>84</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O126" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>